--- a/src/XEQM.xlsx
+++ b/src/XEQM.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="1460" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1034">
   <si>
     <t>TEXT NAME</t>
   </si>
@@ -2131,13 +2132,1003 @@
   </si>
   <si>
     <t>const</t>
+  </si>
+  <si>
+    <t>CATALOG NAME</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>"10" STD_SUP_x</t>
+  </si>
+  <si>
+    <t>"SNAP"</t>
+  </si>
+  <si>
+    <t>"1/x"</t>
+  </si>
+  <si>
+    <t>"2" STD_SUP_x</t>
+  </si>
+  <si>
+    <t>STD_CUBE_ROOT STD_x_UNDER_ROOT</t>
+  </si>
+  <si>
+    <t>"AGM"</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>"AND"</t>
+  </si>
+  <si>
+    <t>Trig</t>
+  </si>
+  <si>
+    <t>"ACOS"</t>
+  </si>
+  <si>
+    <t>"arcosh"</t>
+  </si>
+  <si>
+    <t>"ASIN"</t>
+  </si>
+  <si>
+    <t>"ATAN"</t>
+  </si>
+  <si>
+    <t>"arsinh"</t>
+  </si>
+  <si>
+    <t>"artanh"</t>
+  </si>
+  <si>
+    <t>"ASR"</t>
+  </si>
+  <si>
+    <t>"BATT?"</t>
+  </si>
+  <si>
+    <t>"BC?"</t>
+  </si>
+  <si>
+    <t>"BS?"</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>"c"</t>
+  </si>
+  <si>
+    <t>"CB"</t>
+  </si>
+  <si>
+    <t>"CEIL"</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>"CLFall"</t>
+  </si>
+  <si>
+    <t>"CLLCD"</t>
+  </si>
+  <si>
+    <t>"CLMENU"</t>
+  </si>
+  <si>
+    <t>"CLREGS"</t>
+  </si>
+  <si>
+    <t>"CLSTK"</t>
+  </si>
+  <si>
+    <t>"CLX"</t>
+  </si>
+  <si>
+    <t>"CL" STD_SIGMA</t>
+  </si>
+  <si>
+    <t>"C" STD_SUB_y STD_SUB_x</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>"conj"</t>
+  </si>
+  <si>
+    <t>"CNST"</t>
+  </si>
+  <si>
+    <t>"COS"</t>
+  </si>
+  <si>
+    <t>"cosh"</t>
+  </si>
+  <si>
+    <t>"CPX?"</t>
+  </si>
+  <si>
+    <t>"cross"</t>
+  </si>
+  <si>
+    <t>"CX" STD_RIGHT_ARROW "RE"</t>
+  </si>
+  <si>
+    <t>"DEC"</t>
+  </si>
+  <si>
+    <t>"DECOMP"</t>
+  </si>
+  <si>
+    <t>"DEG" STD_RIGHT_ARROW</t>
+  </si>
+  <si>
+    <t>"dot"</t>
+  </si>
+  <si>
+    <t>"DROP" STD_DOWN_ARROW</t>
+  </si>
+  <si>
+    <t>"DROPy"</t>
+  </si>
+  <si>
+    <t>"D.MS" STD_RIGHT_ARROW</t>
+  </si>
+  <si>
+    <t>"D" STD_RIGHT_ARROW "R"</t>
+  </si>
+  <si>
+    <t>"e"</t>
+  </si>
+  <si>
+    <t>"ENG"</t>
+  </si>
+  <si>
+    <t>"ENTER" STD_UP_ARROW</t>
+  </si>
+  <si>
+    <t>"ENTRY?"</t>
+  </si>
+  <si>
+    <t>"e" STD_SUP_x</t>
+  </si>
+  <si>
+    <t>"EXPT"</t>
+  </si>
+  <si>
+    <t>"e" STD_SUP_x "-1"</t>
+  </si>
+  <si>
+    <t>"FB"</t>
+  </si>
+  <si>
+    <t>"FF"</t>
+  </si>
+  <si>
+    <t>"FILL"</t>
+  </si>
+  <si>
+    <t>"FIX"</t>
+  </si>
+  <si>
+    <t>"FLASH?"</t>
+  </si>
+  <si>
+    <t>"FLOOR"</t>
+  </si>
+  <si>
+    <t>"FP"</t>
+  </si>
+  <si>
+    <t>"GCD"</t>
+  </si>
+  <si>
+    <t>"g" STD_SUB_e</t>
+  </si>
+  <si>
+    <t>"GRAD" STD_RIGHT_ARROW</t>
+  </si>
+  <si>
+    <t>"g" STD_SUB_EARTH</t>
+  </si>
+  <si>
+    <t>"IDIV"</t>
+  </si>
+  <si>
+    <t>"Im"</t>
+  </si>
+  <si>
+    <t>"INC"</t>
+  </si>
+  <si>
+    <t>"IP"</t>
+  </si>
+  <si>
+    <t>"KEY?"</t>
+  </si>
+  <si>
+    <t>"LSTx"</t>
+  </si>
+  <si>
+    <t>"LCM"</t>
+  </si>
+  <si>
+    <t>"LJ"</t>
+  </si>
+  <si>
+    <t>"LN"</t>
+  </si>
+  <si>
+    <t>"ln 1+x"</t>
+  </si>
+  <si>
+    <t>"ln" STD_beta</t>
+  </si>
+  <si>
+    <t>"ln" STD_GAMMA</t>
+  </si>
+  <si>
+    <t>"LocR?"</t>
+  </si>
+  <si>
+    <t>"LOG"</t>
+  </si>
+  <si>
+    <t>"lb x"</t>
+  </si>
+  <si>
+    <t>"log" STD_SUB_x "y"</t>
+  </si>
+  <si>
+    <t>"MANT"</t>
+  </si>
+  <si>
+    <t>"MASKL"</t>
+  </si>
+  <si>
+    <t>"MASKR"</t>
+  </si>
+  <si>
+    <t>"max"</t>
+  </si>
+  <si>
+    <t>"MEM?"</t>
+  </si>
+  <si>
+    <t>"min"</t>
+  </si>
+  <si>
+    <t>"MIRROR"</t>
+  </si>
+  <si>
+    <t>"MOD"</t>
+  </si>
+  <si>
+    <t>"NAND"</t>
+  </si>
+  <si>
+    <t>"NEIGHB"</t>
+  </si>
+  <si>
+    <t>"NEXTP"</t>
+  </si>
+  <si>
+    <t>"NOR"</t>
+  </si>
+  <si>
+    <t>"NOT"</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>"n"</t>
+  </si>
+  <si>
+    <t>"OR"</t>
+  </si>
+  <si>
+    <t>"P" STD_SUB_y STD_SUB_x</t>
+  </si>
+  <si>
+    <t>"PLOT"</t>
+  </si>
+  <si>
+    <t>"PRIME?"</t>
+  </si>
+  <si>
+    <t>"RAD" STD_RIGHT_ARROW</t>
+  </si>
+  <si>
+    <t>"RAN#"</t>
+  </si>
+  <si>
+    <t>"RCL"</t>
+  </si>
+  <si>
+    <t>"RCLEL"</t>
+  </si>
+  <si>
+    <t>"RCLIJ"</t>
+  </si>
+  <si>
+    <t>"RCLS"</t>
+  </si>
+  <si>
+    <t>"RCL+"</t>
+  </si>
+  <si>
+    <t>"RCL-"</t>
+  </si>
+  <si>
+    <t>"RCL" STD_CROSS</t>
+  </si>
+  <si>
+    <t>"RCL/"</t>
+  </si>
+  <si>
+    <t>"Max"</t>
+  </si>
+  <si>
+    <t>"Min"</t>
+  </si>
+  <si>
+    <t>"Re"</t>
+  </si>
+  <si>
+    <t>"REAL?"</t>
+  </si>
+  <si>
+    <t>"RE" STD_RIGHT_ARROW "CX"</t>
+  </si>
+  <si>
+    <t>"Re" STD_LEFT_RIGHT_ARROWS "Im"</t>
+  </si>
+  <si>
+    <t>"RJ"</t>
+  </si>
+  <si>
+    <t>"RL"</t>
+  </si>
+  <si>
+    <t>"RLC"</t>
+  </si>
+  <si>
+    <t>"RMODE?"</t>
+  </si>
+  <si>
+    <t>"RMD"</t>
+  </si>
+  <si>
+    <t>"RR"</t>
+  </si>
+  <si>
+    <t>"RRC"</t>
+  </si>
+  <si>
+    <t>"R" STD_RIGHT_ARROW "D"</t>
+  </si>
+  <si>
+    <t>"SB"</t>
+  </si>
+  <si>
+    <t>"SCI"</t>
+  </si>
+  <si>
+    <t>"SDIGS?"</t>
+  </si>
+  <si>
+    <t>"SDL"</t>
+  </si>
+  <si>
+    <t>"SDR"</t>
+  </si>
+  <si>
+    <t>"SEED"</t>
+  </si>
+  <si>
+    <t>"sign"</t>
+  </si>
+  <si>
+    <t>"SIN"</t>
+  </si>
+  <si>
+    <t>"sinc"</t>
+  </si>
+  <si>
+    <t>"sinh"</t>
+  </si>
+  <si>
+    <t>"SL"</t>
+  </si>
+  <si>
+    <t>"SLVQ"</t>
+  </si>
+  <si>
+    <t>"SMODE?"</t>
+  </si>
+  <si>
+    <t>"SR"</t>
+  </si>
+  <si>
+    <t>"SSIZE?"</t>
+  </si>
+  <si>
+    <t>"STO"</t>
+  </si>
+  <si>
+    <t>"STOEL"</t>
+  </si>
+  <si>
+    <t>"STOIJ"</t>
+  </si>
+  <si>
+    <t>"STOS"</t>
+  </si>
+  <si>
+    <t>"ST.A"</t>
+  </si>
+  <si>
+    <t>"ST.B"</t>
+  </si>
+  <si>
+    <t>"ST.C"</t>
+  </si>
+  <si>
+    <t>"ST.D"</t>
+  </si>
+  <si>
+    <t>"ST.T"</t>
+  </si>
+  <si>
+    <t>"ST.X"</t>
+  </si>
+  <si>
+    <t>"ST.Y"</t>
+  </si>
+  <si>
+    <t>"ST.Z"</t>
+  </si>
+  <si>
+    <t>"SUM"</t>
+  </si>
+  <si>
+    <t>"TAN"</t>
+  </si>
+  <si>
+    <t>"tanh"</t>
+  </si>
+  <si>
+    <t>"TICKS"</t>
+  </si>
+  <si>
+    <t>"t" STD_LEFT_RIGHT_ARROWS</t>
+  </si>
+  <si>
+    <t>"ULP?"</t>
+  </si>
+  <si>
+    <t>"UNITV"</t>
+  </si>
+  <si>
+    <t>"WSIZE"</t>
+  </si>
+  <si>
+    <t>"WSIZE?"</t>
+  </si>
+  <si>
+    <t>"x" STD_SUP_2</t>
+  </si>
+  <si>
+    <t>"x" STD_SUP_3</t>
+  </si>
+  <si>
+    <t>"XNOR"</t>
+  </si>
+  <si>
+    <t>"XOR"</t>
+  </si>
+  <si>
+    <t>STD_x_BAR</t>
+  </si>
+  <si>
+    <t>STD_x_BAR STD_SUB_G</t>
+  </si>
+  <si>
+    <t>STD_x_BAR STD_SUB_w</t>
+  </si>
+  <si>
+    <t>"x!"</t>
+  </si>
+  <si>
+    <t>"x" STD_RIGHT_ARROW STD_alpha</t>
+  </si>
+  <si>
+    <t>"x" STD_LEFT_RIGHT_ARROWS</t>
+  </si>
+  <si>
+    <t>"x" STD_LEFT_RIGHT_ARROWS "y"</t>
+  </si>
+  <si>
+    <t>STD_xTH_ROOT STD_y_UNDER_ROOT</t>
+  </si>
+  <si>
+    <t>"y" STD_SUP_x</t>
+  </si>
+  <si>
+    <t>"y" STD_LEFT_RIGHT_ARROWS</t>
+  </si>
+  <si>
+    <t>"z" STD_LEFT_RIGHT_ARROWS</t>
+  </si>
+  <si>
+    <t>"x" STD_SUB_m STD_SUB_a STD_SUB_x</t>
+  </si>
+  <si>
+    <t>"x" STD_SUB_m STD_SUB_i STD_SUB_n</t>
+  </si>
+  <si>
+    <t>STD_GAMMA "(x)"</t>
+  </si>
+  <si>
+    <t>STD_DELTA "%"</t>
+  </si>
+  <si>
+    <t>STD_mu STD_SUB_0</t>
+  </si>
+  <si>
+    <t>STD_pi</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "ln" STD_SUP_2 "x"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "ln" STD_SUP_2 "y"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "lnx"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "lnxy"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "lny"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "x"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "x" STD_SUP_2</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "x" STD_SUP_2 "y"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "xlny"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "xy"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "y"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "y" STD_SUP_2</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "ylnx"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "+"</t>
+  </si>
+  <si>
+    <t>STD_PHI</t>
+  </si>
+  <si>
+    <t>"RANI#"</t>
+  </si>
+  <si>
+    <t>"RANGE"</t>
+  </si>
+  <si>
+    <t>"RANGE?"</t>
+  </si>
+  <si>
+    <t>"(-1)" STD_SUP_x</t>
+  </si>
+  <si>
+    <t>"+"</t>
+  </si>
+  <si>
+    <t>"CHS"</t>
+  </si>
+  <si>
+    <t>"-"</t>
+  </si>
+  <si>
+    <t>"-" STD_INFINITY</t>
+  </si>
+  <si>
+    <t>STD_CROSS</t>
+  </si>
+  <si>
+    <t>STD_DIVIDE</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "DEG"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "D.MS"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "GRAD"</t>
+  </si>
+  <si>
+    <t>".d"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "h.ms"</t>
+  </si>
+  <si>
+    <t>"#"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "MUL" STD_pi</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "RAD"</t>
+  </si>
+  <si>
+    <t>"D" STD_RIGHT_ARROW "D.MS"</t>
+  </si>
+  <si>
+    <t>STD_LEFT_RIGHT_ARROWS</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>"%"</t>
+  </si>
+  <si>
+    <t>"%MRR"</t>
+  </si>
+  <si>
+    <t>"%T"</t>
+  </si>
+  <si>
+    <t>"%" STD_SIGMA</t>
+  </si>
+  <si>
+    <t>"%+MG"</t>
+  </si>
+  <si>
+    <t>STD_SQUARE_ROOT STD_x_UNDER_ROOT</t>
+  </si>
+  <si>
+    <t>STD_INFINITY</t>
+  </si>
+  <si>
+    <t>"|x|"</t>
+  </si>
+  <si>
+    <t>"|" STD_SPACE_3_PER_EM "|"</t>
+  </si>
+  <si>
+    <t>STD_MEASURED_ANGLE</t>
+  </si>
+  <si>
+    <t>"MUL" STD_pi STD_RIGHT_ARROW</t>
+  </si>
+  <si>
+    <t>"#B"</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>"B"</t>
+  </si>
+  <si>
+    <t>"C"</t>
+  </si>
+  <si>
+    <t>"D"</t>
+  </si>
+  <si>
+    <t>"L"</t>
+  </si>
+  <si>
+    <t>"I"</t>
+  </si>
+  <si>
+    <t>"J"</t>
+  </si>
+  <si>
+    <t>"K"</t>
+  </si>
+  <si>
+    <t>"CC"</t>
+  </si>
+  <si>
+    <t>"EXIT"</t>
+  </si>
+  <si>
+    <t>"ALPHA"</t>
+  </si>
+  <si>
+    <t>"D.MS" STD_RIGHT_ARROW "D"</t>
+  </si>
+  <si>
+    <t>STD_x_BAR STD_SUB_H</t>
+  </si>
+  <si>
+    <t>STD_x_BAR STD_SUB_R STD_SUB_M STD_SUB_S</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "lny/x"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "x" STD_SUP_2 "/y"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA STD_SUP_1 "/x"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA STD_SUP_1 "/x" STD_SUP_2</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "x/y"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA STD_SUP_1 "/y"</t>
+  </si>
+  <si>
+    <t>STD_SIGMA STD_SUP_1 "/y" STD_SUP_2</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "x" STD_SUP_3</t>
+  </si>
+  <si>
+    <t>STD_SIGMA "x" STD_SUP_4</t>
+  </si>
+  <si>
+    <t>"IDIVR"</t>
+  </si>
+  <si>
+    <t>"DET"</t>
+  </si>
+  <si>
+    <t>"INVRT"</t>
+  </si>
+  <si>
+    <t>"TRANS"</t>
+  </si>
+  <si>
+    <t>"SIG"</t>
+  </si>
+  <si>
+    <t>"UNIT"</t>
+  </si>
+  <si>
+    <t>"eRPN?"</t>
+  </si>
+  <si>
+    <t>STD_case</t>
+  </si>
+  <si>
+    <t>Elec</t>
+  </si>
+  <si>
+    <t>"a"</t>
+  </si>
+  <si>
+    <t>"a" STD_SUP_2</t>
+  </si>
+  <si>
+    <t>"j"</t>
+  </si>
+  <si>
+    <t>"Y" STD_SPACE_3_PER_EM STD_RIGHT_ARROW STD_SPACE_3_PER_EM STD_DELTA</t>
+  </si>
+  <si>
+    <t>STD_DELTA STD_SPACE_3_PER_EM STD_RIGHT_ARROW STD_SPACE_3_PER_EM "Y"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW STD_SPACE_3_PER_EM "012"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW STD_SPACE_3_PER_EM "abc"</t>
+  </si>
+  <si>
+    <t>"e^" STD_THETA "j"</t>
+  </si>
+  <si>
+    <t>"STO" STD_SPACE_3_PER_EM "3Z"</t>
+  </si>
+  <si>
+    <t>"RCL" STD_SPACE_3_PER_EM "3Z"</t>
+  </si>
+  <si>
+    <t>"STO" STD_SPACE_3_PER_EM "3V"</t>
+  </si>
+  <si>
+    <t>"RCL" STD_SPACE_3_PER_EM "3V"</t>
+  </si>
+  <si>
+    <t>"STO" STD_SPACE_3_PER_EM "3I"</t>
+  </si>
+  <si>
+    <t>"RCL" STD_SPACE_3_PER_EM "3I"</t>
+  </si>
+  <si>
+    <t>"V" STD_DIVIDE "I"</t>
+  </si>
+  <si>
+    <t>"I" STD_CROSS "Z"</t>
+  </si>
+  <si>
+    <t>"V" STD_DIVIDE "Z"</t>
+  </si>
+  <si>
+    <t>"X" STD_SPACE_3_PER_EM STD_RIGHT_ARROW STD_SPACE_3_PER_EM "BAL"</t>
+  </si>
+  <si>
+    <t>"COMPLEX"</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW STD_RIGHT_ARROW "LI"</t>
+  </si>
+  <si>
+    <t>"SI" STD_LEFT_ARROW STD_LEFT_ARROW</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "LI" STD_LEFT_RIGHT_ARROWS "SI"</t>
+  </si>
+  <si>
+    <t>".ms"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "P"</t>
+  </si>
+  <si>
+    <t>STD_RIGHT_ARROW "R"</t>
+  </si>
+  <si>
+    <t>"CPXi"</t>
+  </si>
+  <si>
+    <t>"CPXj"</t>
+  </si>
+  <si>
+    <t>"SSIZE4"</t>
+  </si>
+  <si>
+    <t>"SSIZE8"</t>
+  </si>
+  <si>
+    <t>"XEQM01"</t>
+  </si>
+  <si>
+    <t>"XEQM02"</t>
+  </si>
+  <si>
+    <t>"XEQM03"</t>
+  </si>
+  <si>
+    <t>"XEQM04"</t>
+  </si>
+  <si>
+    <t>"XEQM05"</t>
+  </si>
+  <si>
+    <t>"XEQM06"</t>
+  </si>
+  <si>
+    <t>"XEQM07"</t>
+  </si>
+  <si>
+    <t>"XEQM08"</t>
+  </si>
+  <si>
+    <t>"XEQM09"</t>
+  </si>
+  <si>
+    <t>"XEQM10"</t>
+  </si>
+  <si>
+    <t>"XEQM11"</t>
+  </si>
+  <si>
+    <t>"XEQM12"</t>
+  </si>
+  <si>
+    <t>"XEQM13"</t>
+  </si>
+  <si>
+    <t>"XEQM14"</t>
+  </si>
+  <si>
+    <t>"XEQM15"</t>
+  </si>
+  <si>
+    <t>"XEQM16"</t>
+  </si>
+  <si>
+    <t>"XEQM17"</t>
+  </si>
+  <si>
+    <t>"XEQM18"</t>
+  </si>
+  <si>
+    <t>"ROUND"</t>
+  </si>
+  <si>
+    <t>"ROUNDI"</t>
+  </si>
+  <si>
+    <t>"eRPN"</t>
+  </si>
+  <si>
+    <t>"RPN"</t>
+  </si>
+  <si>
+    <t>"X.SAVE"</t>
+  </si>
+  <si>
+    <t>"X.LOAD"</t>
+  </si>
+  <si>
+    <t>"X.XEQ"</t>
+  </si>
+  <si>
+    <t>"DEG"</t>
+  </si>
+  <si>
+    <t>"d.ms"</t>
+  </si>
+  <si>
+    <t>GRAD</t>
+  </si>
+  <si>
+    <t>"GRAD"</t>
+  </si>
+  <si>
+    <t>MULPI</t>
+  </si>
+  <si>
+    <t>MULpi</t>
+  </si>
+  <si>
+    <t>"MUL" STD_pi</t>
+  </si>
+  <si>
+    <t>"RAD"</t>
+  </si>
+  <si>
+    <t>H.MS</t>
+  </si>
+  <si>
+    <t>h.ms</t>
+  </si>
+  <si>
+    <t>"h.ms"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2161,21 +3152,155 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2208,10 +3333,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2571,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -10119,4 +11279,5993 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I351"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13">
+        <v>1527</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>802</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>797</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>1526</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>1736</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>67</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>87</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>101</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>115</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>116</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>125</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5">
+        <v>127</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>128</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>139</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>145</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5">
+        <v>148</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5">
+        <v>149</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5">
+        <v>1694</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5">
+        <v>1523</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5">
+        <v>167</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5">
+        <v>173</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5">
+        <v>180</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5">
+        <v>182</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5">
+        <v>185</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5">
+        <v>188</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5">
+        <v>189</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5">
+        <v>190</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5">
+        <v>217</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5">
+        <v>230</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5">
+        <v>284</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5">
+        <v>296</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5">
+        <v>301</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5">
+        <v>309</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5">
+        <v>322</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5">
+        <v>344</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5">
+        <v>345</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5">
+        <v>346</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="5">
+        <v>353</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5">
+        <v>355</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5">
+        <v>358</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5">
+        <v>359</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5">
+        <v>421</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5">
+        <v>455</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5">
+        <v>769</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="5">
+        <v>770</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5">
+        <v>488</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5">
+        <v>494</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5">
+        <v>496</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5">
+        <v>493</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5">
+        <v>490</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5">
+        <v>491</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="5">
+        <v>497</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="5">
+        <v>498</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="5">
+        <v>492</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5">
+        <v>495</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="5">
+        <v>506</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="5">
+        <v>882</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="5">
+        <v>883</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="5">
+        <v>884</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="5">
+        <v>885</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="5">
+        <v>887</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="5">
+        <v>888</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="5">
+        <v>889</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="5">
+        <v>886</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="5">
+        <v>513</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5">
+        <v>515</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5">
+        <v>516</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="5">
+        <v>519</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5">
+        <v>524</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="5">
+        <v>525</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5">
+        <v>543</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="5">
+        <v>545</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="5">
+        <v>548</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="5">
+        <v>549</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="5">
+        <v>550</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5">
+        <v>552</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="5">
+        <v>1682</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5">
+        <v>571</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5">
+        <v>573</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="5">
+        <v>575</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5">
+        <v>577</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="5">
+        <v>5</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="5">
+        <v>582</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="5">
+        <v>585</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="5">
+        <v>1964</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="5">
+        <v>1968</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="5">
+        <v>604</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="5">
+        <v>605</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="5">
+        <v>606</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="5">
+        <v>607</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="5">
+        <v>608</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="5">
+        <v>609</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="5">
+        <v>610</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="5">
+        <v>611</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="5">
+        <v>589</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="5">
+        <v>591</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="5">
+        <v>592</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="5">
+        <v>594</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="5">
+        <v>641</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="5">
+        <v>622</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="5">
+        <v>642</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="5">
+        <v>1693</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="5">
+        <v>644</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="5">
+        <v>664</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="5">
+        <v>665</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="5">
+        <v>679</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="5">
+        <v>683</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="5">
+        <v>684</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="5">
+        <v>682</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="5">
+        <v>1979</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="5">
+        <v>1981</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="5">
+        <v>1982</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="5">
+        <v>1983</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="5">
+        <v>1984</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="5">
+        <v>1985</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="5">
+        <v>1986</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="5">
+        <v>1987</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="5">
+        <v>1988</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="5">
+        <v>1989</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="5">
+        <v>1990</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="5">
+        <v>1991</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="5">
+        <v>1992</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="5">
+        <v>1993</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="5">
+        <v>1994</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="5">
+        <v>1995</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="5">
+        <v>701</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="5">
+        <v>703</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="5">
+        <v>73</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="5">
+        <v>77</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="5">
+        <v>78</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="5">
+        <v>82</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="5">
+        <v>83</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="5">
+        <v>85</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="5">
+        <v>84</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="5">
+        <v>1955</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="5">
+        <v>1956</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="5">
+        <v>819</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="5">
+        <v>1516</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="5">
+        <v>1766</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="5">
+        <v>88</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="5">
+        <v>100</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="5">
+        <v>1960</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="5">
+        <v>1961</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="5">
+        <v>103</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="5">
+        <v>250</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="5">
+        <v>503</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="5">
+        <v>512</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="5">
+        <v>511</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="5">
+        <v>56</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="5">
+        <v>89</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="5">
+        <v>220</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="5">
+        <v>233</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="5">
+        <v>812</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="5">
+        <v>735</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="5">
+        <v>764</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="5">
+        <v>744</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="5">
+        <v>1763</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="5">
+        <v>1762</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="5">
+        <v>1764</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="5">
+        <v>1752</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="5">
+        <v>1750</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="5">
+        <v>1755</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="5">
+        <v>1739</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="5">
+        <v>1740</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="5">
+        <v>1741</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="5">
+        <v>1761</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="5">
+        <v>1759</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="5">
+        <v>1757</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="5">
+        <v>1760</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="5">
+        <v>1758</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="5">
+        <v>1756</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="5">
+        <v>1753</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="5">
+        <v>1765</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="5">
+        <v>1751</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="5">
+        <v>1925</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="5">
+        <v>1769</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="5">
+        <v>1768</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="5">
+        <v>837</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="5">
+        <v>22</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="5">
+        <v>414</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="5">
+        <v>425</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="5">
+        <v>431</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="5">
+        <v>437</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="5">
+        <v>672</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="5">
+        <v>673</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="5">
+        <v>780</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="5">
+        <v>781</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="5">
+        <v>777</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="5">
+        <v>782</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="5">
+        <v>784</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="5">
+        <v>778</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="5">
+        <v>6</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="5">
+        <v>3</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="5">
+        <v>8</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="5">
+        <v>815</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="5">
+        <v>779</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="5">
+        <v>9</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="5">
+        <v>726</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="5">
+        <v>1581</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="5">
+        <v>158</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="5">
+        <v>168</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="5">
+        <v>724</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="5">
+        <v>247</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="5">
+        <v>1577</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="5">
+        <v>252</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="5">
+        <v>1582</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="5">
+        <v>259</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="5">
+        <v>310</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="5">
+        <v>312</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="5">
+        <v>314</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="5">
+        <v>315</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="5">
+        <v>323</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="5">
+        <v>324</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="5">
+        <v>331</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="5">
+        <v>364</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="5">
+        <v>820</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="5">
+        <v>422</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="5">
+        <v>816</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="5">
+        <v>450</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="5">
+        <v>469</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="5">
+        <v>486</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="5">
+        <v>766</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="5">
+        <v>520</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="5">
+        <v>566</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="5">
+        <v>1583</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="5">
+        <v>669</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="5">
+        <v>670</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="5">
+        <v>694</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="5">
+        <v>698</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="5">
+        <v>433</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="5">
+        <v>612</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="5">
+        <v>1569</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="5">
+        <v>1570</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="5">
+        <v>1572</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="5">
+        <v>1573</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="5">
+        <v>762</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="5">
+        <v>748</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="5">
+        <v>749</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="5">
+        <v>750</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="5">
+        <v>751</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="5">
+        <v>752</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="5">
+        <v>1567</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="5">
+        <v>754</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="5">
+        <v>1571</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="5">
+        <v>755</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="5">
+        <v>1568</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="5">
+        <v>756</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="5">
+        <v>1574</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="5">
+        <v>1575</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="5">
+        <v>757</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="5">
+        <v>758</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="5">
+        <v>759</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="5">
+        <v>760</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="5">
+        <v>761</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="5">
+        <v>675</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="5">
+        <v>1559</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="5">
+        <v>674</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="5">
+        <v>1560</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="5">
+        <v>676</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="5">
+        <v>708</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I275" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="5">
+        <v>709</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I276" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="5">
+        <v>1926</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="5">
+        <v>804</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="5">
+        <v>806</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="5">
+        <v>789</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I280" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="5">
+        <v>788</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I281" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="5">
+        <v>790</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I282" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="5">
+        <v>792</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="5">
+        <v>791</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="5">
+        <v>793</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="5">
+        <v>794</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="5">
+        <v>796</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I287" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="5">
+        <v>24</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="5">
+        <v>25</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="5">
+        <v>26</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="5">
+        <v>27</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="5">
+        <v>28</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="5">
+        <v>29</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="5">
+        <v>92</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="5">
+        <v>93</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I295" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I296" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="5">
+        <v>135</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I297" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="5">
+        <v>1533</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I298" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="5">
+        <v>799</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="5">
+        <v>138</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I300" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I301" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="5">
+        <v>118</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I303" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I304" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I305" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" s="5">
+        <v>534</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I306" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="5">
+        <v>484</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I308" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="5">
+        <v>569</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="5">
+        <v>570</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="5">
+        <v>618</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="5">
+        <v>619</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" s="5">
+        <v>803</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" s="5">
+        <v>807</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="I314" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="5">
+        <v>805</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="I315" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="5">
+        <v>808</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="I316" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16" thickBot="1">
+      <c r="A317" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B317" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C317" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D317" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I317" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B318" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C318" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D318" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I318" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16" thickBot="1">
+      <c r="A319" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B319" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C319" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D319" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I319" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B320" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C320" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D320" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I320" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16" thickBot="1">
+      <c r="A321" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B321" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C321" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D321" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I321" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B322" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C322" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D322" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I322" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="16" thickBot="1">
+      <c r="A323" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B323" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C323" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D323" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I323" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B324" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C324" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D324" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I324" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16" thickBot="1">
+      <c r="A325" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B325" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C325" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D325" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I325" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B326" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C326" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D326" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I326" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="16" thickBot="1">
+      <c r="A327" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B327" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C327" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D327" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I327" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B328" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C328" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D328" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I328" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="16" thickBot="1">
+      <c r="A329" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B329" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C329" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D329" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I329" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B330" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C330" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D330" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I330" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16" thickBot="1">
+      <c r="A331" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B331" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C331" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D331" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I331" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B332" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C332" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D332" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I332" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="16" thickBot="1">
+      <c r="A333" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B333" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C333" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D333" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I333" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B334" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C334" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D334" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I334" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="16" thickBot="1">
+      <c r="A335" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B335" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C335" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D335" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I335" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B336" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C336" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D336" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I336" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="16" thickBot="1">
+      <c r="A337" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B337" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C337" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D337" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I337" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B338" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C338" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D338" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I338" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="16" thickBot="1">
+      <c r="A339" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B339" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C339" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D339" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I339" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B340" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C340" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D340" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I340" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="16" thickBot="1">
+      <c r="A341" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B341" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C341" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D341" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I341" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B342" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C342" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D342" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I342" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="16" thickBot="1">
+      <c r="A343" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B343" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C343" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D343" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I343" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B344" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C344" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D344" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I344" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="16" thickBot="1">
+      <c r="A345" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B345" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C345" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D345" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I345" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B346" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C346" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D346" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I346" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="16" thickBot="1">
+      <c r="A347" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B347" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C347" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D347" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I347" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B348" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C348" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D348" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I348" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="16" thickBot="1">
+      <c r="A349" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B349" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C349" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D349" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I349" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B350" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I350" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" s="9"/>
+      <c r="B351" s="10"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="11"/>
+      <c r="F351" s="11"/>
+      <c r="G351" s="11"/>
+      <c r="H351" s="11"/>
+      <c r="I351" s="10"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:I352">
+    <sortCondition ref="D1:D352"/>
+    <sortCondition ref="B1:B352"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>